--- a/Assets/Resources/ExcelDB/EnemyDB.xlsx
+++ b/Assets/Resources/ExcelDB/EnemyDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\Utill\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DBC3CD-B52B-4A34-93CC-5B8687010E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F557C41-3BF7-40BC-B8C0-6C30CA2DC210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD5DF776-12D7-4429-A84B-E30D2AE72BA9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnockBackPower</t>
+  </si>
+  <si>
+    <t>KnockBackPower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnockBackResistance</t>
+  </si>
+  <si>
+    <t>KnockBackResistance</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1120,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A27B477-FBF8-4BE6-960A-9658697B848B}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,9 +1158,12 @@
     <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1182,8 +1203,17 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1253,17 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1303,17 @@
       <c r="M3" t="s">
         <v>10</v>
       </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -1305,8 +1353,17 @@
       <c r="M4">
         <v>100</v>
       </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -1346,8 +1403,17 @@
       <c r="M5">
         <v>100</v>
       </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5002</v>
       </c>
@@ -1387,8 +1453,17 @@
       <c r="M6">
         <v>100</v>
       </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5003</v>
       </c>
@@ -1428,8 +1503,17 @@
       <c r="M7">
         <v>100</v>
       </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5004</v>
       </c>
@@ -1469,8 +1553,17 @@
       <c r="M8">
         <v>150</v>
       </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5005</v>
       </c>
@@ -1510,8 +1603,17 @@
       <c r="M9">
         <v>0</v>
       </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5006</v>
       </c>
@@ -1551,8 +1653,17 @@
       <c r="M10">
         <v>0</v>
       </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5007</v>
       </c>
@@ -1592,8 +1703,17 @@
       <c r="M11">
         <v>0</v>
       </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5008</v>
       </c>
@@ -1632,6 +1752,15 @@
       </c>
       <c r="M12">
         <v>0</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/EnemyDB.xlsx
+++ b/Assets/Resources/ExcelDB/EnemyDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProjectSoul\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F557C41-3BF7-40BC-B8C0-6C30CA2DC210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D7805-7734-4290-8BF5-16D4ACA80C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD5DF776-12D7-4429-A84B-E30D2AE72BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{DD5DF776-12D7-4429-A84B-E30D2AE72BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,9 @@
   <si>
     <t>KnockBackResistance</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린보스</t>
   </si>
 </sst>
 </file>
@@ -756,12 +759,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1138,17 +1144,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A27B477-FBF8-4BE6-960A-9658697B848B}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -1763,6 +1769,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2000200110001000</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/ExcelDB/EnemyDB.xlsx
+++ b/Assets/Resources/ExcelDB/EnemyDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProjectSoul\IdleSoul\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D7805-7734-4290-8BF5-16D4ACA80C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A617C-C526-48CD-A307-9E2A986E08C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{DD5DF776-12D7-4429-A84B-E30D2AE72BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD5DF776-12D7-4429-A84B-E30D2AE72BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -74,15 +74,6 @@
   </si>
   <si>
     <t>고블린 사제장 설명</t>
-  </si>
-  <si>
-    <t>고블린 대장</t>
-  </si>
-  <si>
-    <t>고블린 대장 설명</t>
-  </si>
-  <si>
-    <t>오크</t>
   </si>
   <si>
     <t>오크 전사</t>
@@ -158,6 +149,26 @@
   </si>
   <si>
     <t>고블린보스</t>
+  </si>
+  <si>
+    <t>스켈레톤보스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤 설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤 궁수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤 궁수 설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1144,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A27B477-FBF8-4BE6-960A-9658697B848B}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,10 +1182,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1183,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1192,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1210,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1233,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1242,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1283,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -1292,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1310,13 +1321,13 @@
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
         <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1424,13 +1435,13 @@
         <v>5002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1439,19 +1450,19 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1460,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -1474,34 +1485,34 @@
         <v>5003</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1524,10 +1535,10 @@
         <v>5004</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>300</v>
@@ -1574,10 +1585,10 @@
         <v>5005</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>350</v>
@@ -1624,10 +1635,10 @@
         <v>5006</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -1674,10 +1685,10 @@
         <v>5007</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1724,10 +1735,10 @@
         <v>5008</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -1774,46 +1785,99 @@
         <v>5500</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>2000200110001000</v>
+        <v>100</v>
       </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>100</v>
       </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1000</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>10</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5501</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
